--- a/ValueSet-admission-source-vs.xlsx
+++ b/ValueSet-admission-source-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>AdmissionSourceValueset</t>
+    <t>AdmissionSourceValueSet</t>
   </si>
   <si>
     <t>Title</t>
@@ -90,13 +90,19 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>To standardize the capture of patient admission sources for workflow, reporting, and interoperability.</t>
+  </si>
+  <si>
     <t>Copyright</t>
   </si>
   <si>
+    <t>This value set includes SNOMED CT® content. SNOMED CT® is distributed by SNOMED International.</t>
+  </si>
+  <si>
     <t>Immutable</t>
   </si>
   <si>
-    <t>BooleanType[null]</t>
+    <t>BooleanType[false]</t>
   </si>
   <si>
     <t>Concept</t>
@@ -367,20 +373,24 @@
       <c r="A13" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -402,7 +412,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>22</v>
@@ -410,26 +420,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -442,10 +452,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
